--- a/acc-v3.xlsx
+++ b/acc-v3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>ari</t>
   </si>
@@ -66,11 +66,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -89,9 +89,106 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,120 +203,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,187 +234,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,6 +425,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -447,31 +462,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,20 +484,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,147 +505,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -679,7 +679,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1001,10 +1001,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1012,9 +1012,10 @@
     <col min="1" max="1" width="17.1111111111111" customWidth="1"/>
     <col min="2" max="5" width="11.7777777777778"/>
     <col min="8" max="11" width="12.8888888888889"/>
+    <col min="13" max="13" width="14.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:17">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1039,8 +1040,20 @@
       <c r="K1" t="s">
         <v>3</v>
       </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1074,6 +1087,26 @@
       <c r="K2" s="1">
         <f>AVERAGE(E2:E4)*100</f>
         <v>61.932077</v>
+      </c>
+      <c r="M2" t="str">
+        <f>LEFT(A2,LEN(A2)-3)</f>
+        <v>dias_r-clevrtex</v>
+      </c>
+      <c r="N2" t="str">
+        <f>TEXT(H2,"0.0")&amp;"±"&amp;TEXT(H3,"0.0")</f>
+        <v>80.9±0.3</v>
+      </c>
+      <c r="O2" t="str">
+        <f>TEXT(I2,"0.0")&amp;"±"&amp;TEXT(I3,"0.0")</f>
+        <v>79.1±0.3</v>
+      </c>
+      <c r="P2" t="str">
+        <f>TEXT(J2,"0.0")&amp;"±"&amp;TEXT(J3,"0.0")</f>
+        <v>63.3±0.1</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>TEXT(K2,"0.0")&amp;"±"&amp;TEXT(K3,"0.0")</f>
+        <v>61.9±0.0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1133,7 +1166,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1167,6 +1200,26 @@
       <c r="K5" s="1">
         <f>AVERAGE(E5:E7)*100</f>
         <v>30.2227846666667</v>
+      </c>
+      <c r="M5" t="str">
+        <f>LEFT(A5,LEN(A5)-3)</f>
+        <v>dias_r-coco</v>
+      </c>
+      <c r="N5" t="str">
+        <f>TEXT(H5,"0.0")&amp;"±"&amp;TEXT(H6,"0.0")</f>
+        <v>25.6±0.1</v>
+      </c>
+      <c r="O5" t="str">
+        <f>TEXT(I5,"0.0")&amp;"±"&amp;TEXT(I6,"0.0")</f>
+        <v>41.2±0.3</v>
+      </c>
+      <c r="P5" t="str">
+        <f>TEXT(J5,"0.0")&amp;"±"&amp;TEXT(J6,"0.0")</f>
+        <v>31.7±0.1</v>
+      </c>
+      <c r="Q5" t="str">
+        <f>TEXT(K5,"0.0")&amp;"±"&amp;TEXT(K6,"0.0")</f>
+        <v>30.2±0.1</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1226,7 +1279,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1260,6 +1313,26 @@
       <c r="K8" s="1">
         <f>AVERAGE(E8:E10)*100</f>
         <v>42.4298246666667</v>
+      </c>
+      <c r="M8" t="str">
+        <f>LEFT(A8,LEN(A8)-3)</f>
+        <v>dias_r-voc</v>
+      </c>
+      <c r="N8" t="str">
+        <f>TEXT(H8,"0.0")&amp;"±"&amp;TEXT(H9,"0.0")</f>
+        <v>30.9±0.5</v>
+      </c>
+      <c r="O8" t="str">
+        <f>TEXT(I8,"0.0")&amp;"±"&amp;TEXT(I9,"0.0")</f>
+        <v>33.5±0.7</v>
+      </c>
+      <c r="P8" t="str">
+        <f>TEXT(J8,"0.0")&amp;"±"&amp;TEXT(J9,"0.0")</f>
+        <v>43.4±0.5</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>TEXT(K8,"0.0")&amp;"±"&amp;TEXT(K9,"0.0")</f>
+        <v>42.4±0.5</v>
       </c>
     </row>
     <row r="9" spans="1:11">
